--- a/Code/Results/Cases/Case_3_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_127/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032333726143782</v>
+        <v>1.063268881355981</v>
       </c>
       <c r="D2">
-        <v>1.049436400947956</v>
+        <v>1.068759701037246</v>
       </c>
       <c r="E2">
-        <v>1.031931078003895</v>
+        <v>1.058427909549006</v>
       </c>
       <c r="F2">
-        <v>1.0507862371849</v>
+        <v>1.077878485871743</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063359820537433</v>
+        <v>1.05613503516216</v>
       </c>
       <c r="J2">
-        <v>1.053588551539899</v>
+        <v>1.068235128184039</v>
       </c>
       <c r="K2">
-        <v>1.060247434002765</v>
+        <v>1.071464022579884</v>
       </c>
       <c r="L2">
-        <v>1.042962788300812</v>
+        <v>1.061160171579044</v>
       </c>
       <c r="M2">
-        <v>1.061580633810338</v>
+        <v>1.080558628186115</v>
       </c>
       <c r="N2">
-        <v>1.055084768131382</v>
+        <v>1.069752144594342</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.039708851064848</v>
+        <v>1.064672063497058</v>
       </c>
       <c r="D3">
-        <v>1.055609761320211</v>
+        <v>1.069945980059497</v>
       </c>
       <c r="E3">
-        <v>1.038354204091407</v>
+        <v>1.059663834423424</v>
       </c>
       <c r="F3">
-        <v>1.057907124971712</v>
+        <v>1.079297753070762</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06673640491423</v>
+        <v>1.056677689077528</v>
       </c>
       <c r="J3">
-        <v>1.059172585041126</v>
+        <v>1.069290912670676</v>
       </c>
       <c r="K3">
-        <v>1.065577313308701</v>
+        <v>1.072465422290839</v>
       </c>
       <c r="L3">
-        <v>1.04851877322097</v>
+        <v>1.062209058128189</v>
       </c>
       <c r="M3">
-        <v>1.067849043169661</v>
+        <v>1.081794205487197</v>
       </c>
       <c r="N3">
-        <v>1.060676731600678</v>
+        <v>1.07080942841605</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.044333271629297</v>
+        <v>1.065578216984896</v>
       </c>
       <c r="D4">
-        <v>1.059483541006957</v>
+        <v>1.070712044788009</v>
       </c>
       <c r="E4">
-        <v>1.042380843592237</v>
+        <v>1.060461452159374</v>
       </c>
       <c r="F4">
-        <v>1.06238039124562</v>
+        <v>1.080214986407146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068841180169011</v>
+        <v>1.05702661901967</v>
       </c>
       <c r="J4">
-        <v>1.062667111391939</v>
+        <v>1.069971809872778</v>
       </c>
       <c r="K4">
-        <v>1.068913386370767</v>
+        <v>1.073111283580531</v>
       </c>
       <c r="L4">
-        <v>1.05199332312935</v>
+        <v>1.062885090629076</v>
       </c>
       <c r="M4">
-        <v>1.071780013360731</v>
+        <v>1.082592048752304</v>
       </c>
       <c r="N4">
-        <v>1.064176220579737</v>
+        <v>1.07149129257028</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.046243981740388</v>
+        <v>1.065958740406932</v>
       </c>
       <c r="D5">
-        <v>1.061084722817279</v>
+        <v>1.07103373581091</v>
       </c>
       <c r="E5">
-        <v>1.044044300525169</v>
+        <v>1.060796272269235</v>
       </c>
       <c r="F5">
-        <v>1.064230563926288</v>
+        <v>1.080600327775428</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069707799314725</v>
+        <v>1.057172784845875</v>
       </c>
       <c r="J5">
-        <v>1.064109292053824</v>
+        <v>1.070257522167068</v>
       </c>
       <c r="K5">
-        <v>1.070290305796472</v>
+        <v>1.073382303325628</v>
       </c>
       <c r="L5">
-        <v>1.053426674172751</v>
+        <v>1.063168662064588</v>
       </c>
       <c r="M5">
-        <v>1.073404263187395</v>
+        <v>1.082927071043878</v>
       </c>
       <c r="N5">
-        <v>1.065620449303583</v>
+        <v>1.071777410608799</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.046562894512139</v>
+        <v>1.066022607338557</v>
       </c>
       <c r="D6">
-        <v>1.061352007215661</v>
+        <v>1.071087728043093</v>
       </c>
       <c r="E6">
-        <v>1.044321927657039</v>
+        <v>1.060852460997057</v>
       </c>
       <c r="F6">
-        <v>1.064539483414944</v>
+        <v>1.080665013018323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069852265640802</v>
+        <v>1.057197296076915</v>
       </c>
       <c r="J6">
-        <v>1.064349903383339</v>
+        <v>1.0703054631967</v>
       </c>
       <c r="K6">
-        <v>1.070520036476778</v>
+        <v>1.073427779540873</v>
       </c>
       <c r="L6">
-        <v>1.053665777834418</v>
+        <v>1.063216238029983</v>
       </c>
       <c r="M6">
-        <v>1.073675365217256</v>
+        <v>1.082983300001587</v>
       </c>
       <c r="N6">
-        <v>1.065861402328784</v>
+        <v>1.071825419720192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.044358931359931</v>
+        <v>1.065583303212613</v>
       </c>
       <c r="D7">
-        <v>1.059505041592641</v>
+        <v>1.07071634465724</v>
       </c>
       <c r="E7">
-        <v>1.042403183972231</v>
+        <v>1.060465927992518</v>
       </c>
       <c r="F7">
-        <v>1.062405230489883</v>
+        <v>1.080220136384929</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068852830407071</v>
+        <v>1.057028574150886</v>
       </c>
       <c r="J7">
-        <v>1.062686485757285</v>
+        <v>1.069975629677133</v>
       </c>
       <c r="K7">
-        <v>1.068931883503685</v>
+        <v>1.073114906919313</v>
       </c>
       <c r="L7">
-        <v>1.052012581200767</v>
+        <v>1.062888882202945</v>
       </c>
       <c r="M7">
-        <v>1.071801825940755</v>
+        <v>1.082596526865708</v>
       </c>
       <c r="N7">
-        <v>1.064195622458904</v>
+        <v>1.071495117799195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.034858031272264</v>
+        <v>1.063743470223977</v>
       </c>
       <c r="D8">
-        <v>1.051548713367856</v>
+        <v>1.069160931119858</v>
       </c>
       <c r="E8">
-        <v>1.034129681377278</v>
+        <v>1.058846036514902</v>
       </c>
       <c r="F8">
-        <v>1.05322173674162</v>
+        <v>1.078358371166683</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0645181352881</v>
+        <v>1.056318885749997</v>
       </c>
       <c r="J8">
-        <v>1.055501229203673</v>
+        <v>1.068592408048358</v>
       </c>
       <c r="K8">
-        <v>1.062072923297782</v>
+        <v>1.071802890538387</v>
       </c>
       <c r="L8">
-        <v>1.044866368732141</v>
+        <v>1.061515203536755</v>
       </c>
       <c r="M8">
-        <v>1.063725997788445</v>
+        <v>1.080976544142652</v>
       </c>
       <c r="N8">
-        <v>1.057000162016825</v>
+        <v>1.070109931837049</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0168853754399</v>
+        <v>1.060487345018541</v>
       </c>
       <c r="D9">
-        <v>1.036525472623099</v>
+        <v>1.066408078065889</v>
       </c>
       <c r="E9">
-        <v>1.018475038821142</v>
+        <v>1.055975148322868</v>
       </c>
       <c r="F9">
-        <v>1.03592026617669</v>
+        <v>1.075068780835847</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056219056392596</v>
+        <v>1.055051305166859</v>
       </c>
       <c r="J9">
-        <v>1.041855640974827</v>
+        <v>1.066137388973207</v>
       </c>
       <c r="K9">
-        <v>1.049052496668136</v>
+        <v>1.069474550375283</v>
       </c>
       <c r="L9">
-        <v>1.031275317754625</v>
+        <v>1.059073912482736</v>
       </c>
       <c r="M9">
-        <v>1.04845625596789</v>
+        <v>1.078108965751411</v>
       </c>
       <c r="N9">
-        <v>1.043335195487523</v>
+        <v>1.067651426353217</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003919266222283</v>
+        <v>1.058306655543285</v>
       </c>
       <c r="D10">
-        <v>1.025712293101875</v>
+        <v>1.064564421606643</v>
       </c>
       <c r="E10">
-        <v>1.007183558467625</v>
+        <v>1.054049773400799</v>
       </c>
       <c r="F10">
-        <v>1.023492295934922</v>
+        <v>1.072869317774326</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050167273795706</v>
+        <v>1.054194606985337</v>
       </c>
       <c r="J10">
-        <v>1.031978243476701</v>
+        <v>1.06448851893094</v>
       </c>
       <c r="K10">
-        <v>1.039632320848797</v>
+        <v>1.067910973988793</v>
       </c>
       <c r="L10">
-        <v>1.021424311646574</v>
+        <v>1.057432098029287</v>
       </c>
       <c r="M10">
-        <v>1.037449960404816</v>
+        <v>1.076188159766152</v>
       </c>
       <c r="N10">
-        <v>1.033443770951997</v>
+        <v>1.066000214726362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9980298738434237</v>
+        <v>1.057359933264917</v>
       </c>
       <c r="D11">
-        <v>1.020808389110746</v>
+        <v>1.063764023707246</v>
       </c>
       <c r="E11">
-        <v>1.002056658883385</v>
+        <v>1.053213259211293</v>
       </c>
       <c r="F11">
-        <v>1.017861616831979</v>
+        <v>1.071915316682258</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047403942986648</v>
+        <v>1.05382083992949</v>
       </c>
       <c r="J11">
-        <v>1.027484842665325</v>
+        <v>1.063771569246983</v>
       </c>
       <c r="K11">
-        <v>1.035348276594203</v>
+        <v>1.067231163565995</v>
       </c>
       <c r="L11">
-        <v>1.016939893575589</v>
+        <v>1.056717701771925</v>
       </c>
       <c r="M11">
-        <v>1.032454371321304</v>
+        <v>1.075354190718128</v>
       </c>
       <c r="N11">
-        <v>1.028943988996068</v>
+        <v>1.065282246891619</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9957968552593123</v>
+        <v>1.057007898577012</v>
       </c>
       <c r="D12">
-        <v>1.018950326751639</v>
+        <v>1.063466400700901</v>
       </c>
       <c r="E12">
-        <v>1.000113152347887</v>
+        <v>1.052902109963188</v>
       </c>
       <c r="F12">
-        <v>1.015728980509664</v>
+        <v>1.0715607070568</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046354096246774</v>
+        <v>1.05368157988931</v>
       </c>
       <c r="J12">
-        <v>1.025780171140899</v>
+        <v>1.06350480786953</v>
       </c>
       <c r="K12">
-        <v>1.033723256432685</v>
+        <v>1.066978228971191</v>
       </c>
       <c r="L12">
-        <v>1.015238184858365</v>
+        <v>1.05645181309031</v>
       </c>
       <c r="M12">
-        <v>1.030560917280541</v>
+        <v>1.075044072552542</v>
       </c>
       <c r="N12">
-        <v>1.02723689664255</v>
+        <v>1.065015106682411</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962779739224743</v>
+        <v>1.057083428546467</v>
       </c>
       <c r="D13">
-        <v>1.019350597273823</v>
+        <v>1.063530256416616</v>
       </c>
       <c r="E13">
-        <v>1.000531873196065</v>
+        <v>1.052968872146675</v>
       </c>
       <c r="F13">
-        <v>1.016188365412372</v>
+        <v>1.071636783517417</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046580386258846</v>
+        <v>1.053711470996485</v>
       </c>
       <c r="J13">
-        <v>1.026147495558493</v>
+        <v>1.063562049762209</v>
       </c>
       <c r="K13">
-        <v>1.034073406837136</v>
+        <v>1.067032503532463</v>
       </c>
       <c r="L13">
-        <v>1.015604890756067</v>
+        <v>1.056508871221319</v>
       </c>
       <c r="M13">
-        <v>1.030968842078152</v>
+        <v>1.075110609678133</v>
       </c>
       <c r="N13">
-        <v>1.027604742702949</v>
+        <v>1.065072429865143</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9978462446092117</v>
+        <v>1.05733084176892</v>
       </c>
       <c r="D14">
-        <v>1.020655566592935</v>
+        <v>1.063739428655276</v>
       </c>
       <c r="E14">
-        <v>1.001896828264912</v>
+        <v>1.053187548347711</v>
       </c>
       <c r="F14">
-        <v>1.017686195132615</v>
+        <v>1.071886009709134</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047317652427439</v>
+        <v>1.053809337370928</v>
       </c>
       <c r="J14">
-        <v>1.027344680170854</v>
+        <v>1.063749527976986</v>
       </c>
       <c r="K14">
-        <v>1.035214658492706</v>
+        <v>1.067210264574037</v>
       </c>
       <c r="L14">
-        <v>1.016799983648123</v>
+        <v>1.056695734186971</v>
       </c>
       <c r="M14">
-        <v>1.032298651348201</v>
+        <v>1.075328563332609</v>
       </c>
       <c r="N14">
-        <v>1.028803627454779</v>
+        <v>1.06526017432049</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9988063541227958</v>
+        <v>1.057483230615915</v>
       </c>
       <c r="D15">
-        <v>1.021454656246486</v>
+        <v>1.063868264024502</v>
       </c>
       <c r="E15">
-        <v>1.002732523465034</v>
+        <v>1.05332222467388</v>
       </c>
       <c r="F15">
-        <v>1.018603485207257</v>
+        <v>1.072039532675192</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047768739573617</v>
+        <v>1.053869579463933</v>
       </c>
       <c r="J15">
-        <v>1.028077484583205</v>
+        <v>1.063864979079891</v>
       </c>
       <c r="K15">
-        <v>1.035913256562471</v>
+        <v>1.067319732811413</v>
       </c>
       <c r="L15">
-        <v>1.01753144956866</v>
+        <v>1.056810796163987</v>
       </c>
       <c r="M15">
-        <v>1.03311286469113</v>
+        <v>1.075462805847175</v>
       </c>
       <c r="N15">
-        <v>1.029537472533449</v>
+        <v>1.065375789377202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004303993080684</v>
+        <v>1.058369433599475</v>
       </c>
       <c r="D16">
-        <v>1.026032812326172</v>
+        <v>1.064617496931386</v>
       </c>
       <c r="E16">
-        <v>1.007518523781472</v>
+        <v>1.054105230134091</v>
       </c>
       <c r="F16">
-        <v>1.023860428962777</v>
+        <v>1.072932596900399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050347495708869</v>
+        <v>1.054219353108522</v>
       </c>
       <c r="J16">
-        <v>1.032271640197967</v>
+        <v>1.064536037186187</v>
       </c>
       <c r="K16">
-        <v>1.039912077570351</v>
+        <v>1.067956031834381</v>
       </c>
       <c r="L16">
-        <v>1.021717060138625</v>
+        <v>1.057479436218953</v>
       </c>
       <c r="M16">
-        <v>1.037776384363772</v>
+        <v>1.076243459575045</v>
       </c>
       <c r="N16">
-        <v>1.03373758433026</v>
+        <v>1.066047800462982</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007676158378269</v>
+        <v>1.058924657949477</v>
       </c>
       <c r="D17">
-        <v>1.028843064479672</v>
+        <v>1.065086908672684</v>
       </c>
       <c r="E17">
-        <v>1.010454746869124</v>
+        <v>1.054595629831205</v>
       </c>
       <c r="F17">
-        <v>1.027088771610746</v>
+        <v>1.073492353468163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051925529737238</v>
+        <v>1.054438001467029</v>
       </c>
       <c r="J17">
-        <v>1.034842515883135</v>
+        <v>1.064956172023233</v>
       </c>
       <c r="K17">
-        <v>1.042363588753689</v>
+        <v>1.068354418920646</v>
       </c>
       <c r="L17">
-        <v>1.024281916463227</v>
+        <v>1.057897919686489</v>
       </c>
       <c r="M17">
-        <v>1.040637941564599</v>
+        <v>1.076732536221218</v>
       </c>
       <c r="N17">
-        <v>1.036312110953785</v>
+        <v>1.066468531939687</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00961686029748</v>
+        <v>1.059248273267731</v>
       </c>
       <c r="D18">
-        <v>1.03046108302124</v>
+        <v>1.065360508127203</v>
       </c>
       <c r="E18">
-        <v>1.012144726002794</v>
+        <v>1.054881400686869</v>
       </c>
       <c r="F18">
-        <v>1.028948031592671</v>
+        <v>1.073818694324066</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052832330978538</v>
+        <v>1.05456526439669</v>
       </c>
       <c r="J18">
-        <v>1.036321413448904</v>
+        <v>1.065200942695349</v>
       </c>
       <c r="K18">
-        <v>1.043773947444181</v>
+        <v>1.068586524387224</v>
       </c>
       <c r="L18">
-        <v>1.025757067555631</v>
+        <v>1.058141678763055</v>
       </c>
       <c r="M18">
-        <v>1.042285116636072</v>
+        <v>1.077017590010443</v>
       </c>
       <c r="N18">
-        <v>1.03779310872373</v>
+        <v>1.066713650214232</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010274257454434</v>
+        <v>1.05935857768613</v>
       </c>
       <c r="D19">
-        <v>1.031009288349702</v>
+        <v>1.065453764669305</v>
       </c>
       <c r="E19">
-        <v>1.01271721726116</v>
+        <v>1.054978795434929</v>
       </c>
       <c r="F19">
-        <v>1.029578062424926</v>
+        <v>1.073929941954166</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053139268538704</v>
+        <v>1.054608611927397</v>
       </c>
       <c r="J19">
-        <v>1.03682226420832</v>
+        <v>1.065284354719243</v>
       </c>
       <c r="K19">
-        <v>1.044251607153185</v>
+        <v>1.068665621259552</v>
       </c>
       <c r="L19">
-        <v>1.026256601126458</v>
+        <v>1.058224737664698</v>
       </c>
       <c r="M19">
-        <v>1.042843136663513</v>
+        <v>1.077114749509674</v>
       </c>
       <c r="N19">
-        <v>1.038294670748672</v>
+        <v>1.066797180692767</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007317097532389</v>
+        <v>1.058865112277129</v>
       </c>
       <c r="D20">
-        <v>1.028543760978724</v>
+        <v>1.065036566019814</v>
       </c>
       <c r="E20">
-        <v>1.010142086238197</v>
+        <v>1.054543042671459</v>
       </c>
       <c r="F20">
-        <v>1.026744885571033</v>
+        <v>1.073432313045847</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051757645706723</v>
+        <v>1.054414570622791</v>
       </c>
       <c r="J20">
-        <v>1.034568842368732</v>
+        <v>1.064911125253819</v>
       </c>
       <c r="K20">
-        <v>1.042102608548517</v>
+        <v>1.068311703417632</v>
       </c>
       <c r="L20">
-        <v>1.024008913174585</v>
+        <v>1.057853055100332</v>
       </c>
       <c r="M20">
-        <v>1.040333213882006</v>
+        <v>1.076680085355936</v>
       </c>
       <c r="N20">
-        <v>1.0360380487916</v>
+        <v>1.066423421198693</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9973857182430083</v>
+        <v>1.057257995299831</v>
       </c>
       <c r="D21">
-        <v>1.020272322275338</v>
+        <v>1.063677841520925</v>
       </c>
       <c r="E21">
-        <v>1.001495993768395</v>
+        <v>1.05312316560769</v>
       </c>
       <c r="F21">
-        <v>1.017246289859839</v>
+        <v>1.071812625803975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047101209576619</v>
+        <v>1.053780529963371</v>
       </c>
       <c r="J21">
-        <v>1.026993149604924</v>
+        <v>1.063694332913442</v>
       </c>
       <c r="K21">
-        <v>1.034879545141822</v>
+        <v>1.067157930098641</v>
       </c>
       <c r="L21">
-        <v>1.016449079409111</v>
+        <v>1.056640722393434</v>
       </c>
       <c r="M21">
-        <v>1.031908130246404</v>
+        <v>1.075264390994237</v>
       </c>
       <c r="N21">
-        <v>1.028451597675124</v>
+        <v>1.065204900873624</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9908761011992134</v>
+        <v>1.056245334742717</v>
       </c>
       <c r="D22">
-        <v>1.014858428777348</v>
+        <v>1.062821705089925</v>
       </c>
       <c r="E22">
-        <v>0.9958312820569285</v>
+        <v>1.052227937109839</v>
       </c>
       <c r="F22">
-        <v>1.01103383185315</v>
+        <v>1.070792807157159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044036829795269</v>
+        <v>1.053379414922031</v>
       </c>
       <c r="J22">
-        <v>1.022022041225757</v>
+        <v>1.062926655120293</v>
       </c>
       <c r="K22">
-        <v>1.030141174203892</v>
+        <v>1.066430058024215</v>
       </c>
       <c r="L22">
-        <v>1.011485776891028</v>
+        <v>1.055875410029737</v>
       </c>
       <c r="M22">
-        <v>1.026389830213621</v>
+        <v>1.074372288458215</v>
       </c>
       <c r="N22">
-        <v>1.023473429751864</v>
+        <v>1.064436132889956</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9943536597036654</v>
+        <v>1.056782377004579</v>
       </c>
       <c r="D23">
-        <v>1.017749852280958</v>
+        <v>1.063275737054896</v>
       </c>
       <c r="E23">
-        <v>0.9988571996571295</v>
+        <v>1.052702753845492</v>
       </c>
       <c r="F23">
-        <v>1.014351326473044</v>
+        <v>1.071333573075333</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045674999811094</v>
+        <v>1.053592288917899</v>
       </c>
       <c r="J23">
-        <v>1.024678187526208</v>
+        <v>1.063333867465484</v>
       </c>
       <c r="K23">
-        <v>1.032672830592516</v>
+        <v>1.066816151050159</v>
       </c>
       <c r="L23">
-        <v>1.01413799240141</v>
+        <v>1.056281410112025</v>
       </c>
       <c r="M23">
-        <v>1.029337387758072</v>
+        <v>1.074845400849266</v>
       </c>
       <c r="N23">
-        <v>1.026133348084726</v>
+        <v>1.064843923523385</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007479422410969</v>
+        <v>1.058892019137886</v>
       </c>
       <c r="D24">
-        <v>1.028679068481077</v>
+        <v>1.065059314317356</v>
       </c>
       <c r="E24">
-        <v>1.010283433921022</v>
+        <v>1.05456680538291</v>
       </c>
       <c r="F24">
-        <v>1.026900346076312</v>
+        <v>1.073459443209586</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051833547278025</v>
+        <v>1.054425158850084</v>
       </c>
       <c r="J24">
-        <v>1.034692567236489</v>
+        <v>1.064931480836492</v>
       </c>
       <c r="K24">
-        <v>1.042220594518223</v>
+        <v>1.068331005539915</v>
       </c>
       <c r="L24">
-        <v>1.024132335923339</v>
+        <v>1.057873328511707</v>
       </c>
       <c r="M24">
-        <v>1.040470974705256</v>
+        <v>1.076703786312953</v>
       </c>
       <c r="N24">
-        <v>1.036161949362861</v>
+        <v>1.066443805688628</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02169260542823</v>
+        <v>1.06133084965292</v>
       </c>
       <c r="D25">
-        <v>1.040540027728661</v>
+        <v>1.06712121556863</v>
       </c>
       <c r="E25">
-        <v>1.022662243070354</v>
+        <v>1.056719330186911</v>
       </c>
       <c r="F25">
-        <v>1.04053925497376</v>
+        <v>1.075920317520987</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058450038088772</v>
+        <v>1.055381042649139</v>
       </c>
       <c r="J25">
-        <v>1.045511349089807</v>
+        <v>1.066774192858449</v>
       </c>
       <c r="K25">
-        <v>1.052539997720796</v>
+        <v>1.070078458699955</v>
       </c>
       <c r="L25">
-        <v>1.034918655687283</v>
+        <v>1.059707535365554</v>
       </c>
       <c r="M25">
-        <v>1.05253923580986</v>
+        <v>1.078851877693637</v>
       </c>
       <c r="N25">
-        <v>1.046996095127342</v>
+        <v>1.068289134573018</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_127/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063268881355981</v>
+        <v>1.032333726143783</v>
       </c>
       <c r="D2">
-        <v>1.068759701037246</v>
+        <v>1.049436400947957</v>
       </c>
       <c r="E2">
-        <v>1.058427909549006</v>
+        <v>1.031931078003896</v>
       </c>
       <c r="F2">
-        <v>1.077878485871743</v>
+        <v>1.050786237184901</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05613503516216</v>
+        <v>1.063359820537434</v>
       </c>
       <c r="J2">
-        <v>1.068235128184039</v>
+        <v>1.0535885515399</v>
       </c>
       <c r="K2">
-        <v>1.071464022579884</v>
+        <v>1.060247434002766</v>
       </c>
       <c r="L2">
-        <v>1.061160171579044</v>
+        <v>1.042962788300813</v>
       </c>
       <c r="M2">
-        <v>1.080558628186115</v>
+        <v>1.061580633810339</v>
       </c>
       <c r="N2">
-        <v>1.069752144594342</v>
+        <v>1.055084768131383</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064672063497058</v>
+        <v>1.039708851064847</v>
       </c>
       <c r="D3">
-        <v>1.069945980059497</v>
+        <v>1.055609761320211</v>
       </c>
       <c r="E3">
-        <v>1.059663834423424</v>
+        <v>1.038354204091406</v>
       </c>
       <c r="F3">
-        <v>1.079297753070762</v>
+        <v>1.057907124971711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056677689077528</v>
+        <v>1.06673640491423</v>
       </c>
       <c r="J3">
-        <v>1.069290912670676</v>
+        <v>1.059172585041126</v>
       </c>
       <c r="K3">
-        <v>1.072465422290839</v>
+        <v>1.0655773133087</v>
       </c>
       <c r="L3">
-        <v>1.062209058128189</v>
+        <v>1.048518773220969</v>
       </c>
       <c r="M3">
-        <v>1.081794205487197</v>
+        <v>1.067849043169661</v>
       </c>
       <c r="N3">
-        <v>1.07080942841605</v>
+        <v>1.060676731600677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065578216984896</v>
+        <v>1.044333271629297</v>
       </c>
       <c r="D4">
-        <v>1.070712044788009</v>
+        <v>1.059483541006956</v>
       </c>
       <c r="E4">
-        <v>1.060461452159374</v>
+        <v>1.042380843592235</v>
       </c>
       <c r="F4">
-        <v>1.080214986407146</v>
+        <v>1.062380391245619</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05702661901967</v>
+        <v>1.06884118016901</v>
       </c>
       <c r="J4">
-        <v>1.069971809872778</v>
+        <v>1.062667111391939</v>
       </c>
       <c r="K4">
-        <v>1.073111283580531</v>
+        <v>1.068913386370766</v>
       </c>
       <c r="L4">
-        <v>1.062885090629076</v>
+        <v>1.051993323129349</v>
       </c>
       <c r="M4">
-        <v>1.082592048752304</v>
+        <v>1.07178001336073</v>
       </c>
       <c r="N4">
-        <v>1.07149129257028</v>
+        <v>1.064176220579736</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.065958740406932</v>
+        <v>1.046243981740386</v>
       </c>
       <c r="D5">
-        <v>1.07103373581091</v>
+        <v>1.061084722817278</v>
       </c>
       <c r="E5">
-        <v>1.060796272269235</v>
+        <v>1.044044300525167</v>
       </c>
       <c r="F5">
-        <v>1.080600327775428</v>
+        <v>1.064230563926286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057172784845875</v>
+        <v>1.069707799314724</v>
       </c>
       <c r="J5">
-        <v>1.070257522167068</v>
+        <v>1.064109292053823</v>
       </c>
       <c r="K5">
-        <v>1.073382303325628</v>
+        <v>1.07029030579647</v>
       </c>
       <c r="L5">
-        <v>1.063168662064588</v>
+        <v>1.05342667417275</v>
       </c>
       <c r="M5">
-        <v>1.082927071043878</v>
+        <v>1.073404263187393</v>
       </c>
       <c r="N5">
-        <v>1.071777410608799</v>
+        <v>1.065620449303581</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066022607338557</v>
+        <v>1.046562894512138</v>
       </c>
       <c r="D6">
-        <v>1.071087728043093</v>
+        <v>1.06135200721566</v>
       </c>
       <c r="E6">
-        <v>1.060852460997057</v>
+        <v>1.044321927657039</v>
       </c>
       <c r="F6">
-        <v>1.080665013018323</v>
+        <v>1.064539483414944</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057197296076915</v>
+        <v>1.069852265640802</v>
       </c>
       <c r="J6">
-        <v>1.0703054631967</v>
+        <v>1.064349903383338</v>
       </c>
       <c r="K6">
-        <v>1.073427779540873</v>
+        <v>1.070520036476778</v>
       </c>
       <c r="L6">
-        <v>1.063216238029983</v>
+        <v>1.053665777834417</v>
       </c>
       <c r="M6">
-        <v>1.082983300001587</v>
+        <v>1.073675365217255</v>
       </c>
       <c r="N6">
-        <v>1.071825419720192</v>
+        <v>1.065861402328783</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065583303212613</v>
+        <v>1.04435893135993</v>
       </c>
       <c r="D7">
-        <v>1.07071634465724</v>
+        <v>1.05950504159264</v>
       </c>
       <c r="E7">
-        <v>1.060465927992518</v>
+        <v>1.04240318397223</v>
       </c>
       <c r="F7">
-        <v>1.080220136384929</v>
+        <v>1.062405230489882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057028574150886</v>
+        <v>1.06885283040707</v>
       </c>
       <c r="J7">
-        <v>1.069975629677133</v>
+        <v>1.062686485757284</v>
       </c>
       <c r="K7">
-        <v>1.073114906919313</v>
+        <v>1.068931883503684</v>
       </c>
       <c r="L7">
-        <v>1.062888882202945</v>
+        <v>1.052012581200766</v>
       </c>
       <c r="M7">
-        <v>1.082596526865708</v>
+        <v>1.071801825940754</v>
       </c>
       <c r="N7">
-        <v>1.071495117799195</v>
+        <v>1.064195622458902</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.063743470223977</v>
+        <v>1.034858031272263</v>
       </c>
       <c r="D8">
-        <v>1.069160931119858</v>
+        <v>1.051548713367855</v>
       </c>
       <c r="E8">
-        <v>1.058846036514902</v>
+        <v>1.034129681377277</v>
       </c>
       <c r="F8">
-        <v>1.078358371166683</v>
+        <v>1.05322173674162</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056318885749997</v>
+        <v>1.0645181352881</v>
       </c>
       <c r="J8">
-        <v>1.068592408048358</v>
+        <v>1.055501229203672</v>
       </c>
       <c r="K8">
-        <v>1.071802890538387</v>
+        <v>1.062072923297782</v>
       </c>
       <c r="L8">
-        <v>1.061515203536755</v>
+        <v>1.04486636873214</v>
       </c>
       <c r="M8">
-        <v>1.080976544142652</v>
+        <v>1.063725997788445</v>
       </c>
       <c r="N8">
-        <v>1.070109931837049</v>
+        <v>1.057000162016825</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060487345018541</v>
+        <v>1.016885375439899</v>
       </c>
       <c r="D9">
-        <v>1.066408078065889</v>
+        <v>1.036525472623098</v>
       </c>
       <c r="E9">
-        <v>1.055975148322868</v>
+        <v>1.018475038821141</v>
       </c>
       <c r="F9">
-        <v>1.075068780835847</v>
+        <v>1.03592026617669</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055051305166859</v>
+        <v>1.056219056392595</v>
       </c>
       <c r="J9">
-        <v>1.066137388973207</v>
+        <v>1.041855640974826</v>
       </c>
       <c r="K9">
-        <v>1.069474550375283</v>
+        <v>1.049052496668136</v>
       </c>
       <c r="L9">
-        <v>1.059073912482736</v>
+        <v>1.031275317754625</v>
       </c>
       <c r="M9">
-        <v>1.078108965751411</v>
+        <v>1.048456255967889</v>
       </c>
       <c r="N9">
-        <v>1.067651426353217</v>
+        <v>1.043335195487523</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058306655543285</v>
+        <v>1.003919266222284</v>
       </c>
       <c r="D10">
-        <v>1.064564421606643</v>
+        <v>1.025712293101877</v>
       </c>
       <c r="E10">
-        <v>1.054049773400799</v>
+        <v>1.007183558467626</v>
       </c>
       <c r="F10">
-        <v>1.072869317774326</v>
+        <v>1.023492295934923</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054194606985337</v>
+        <v>1.050167273795707</v>
       </c>
       <c r="J10">
-        <v>1.06448851893094</v>
+        <v>1.031978243476702</v>
       </c>
       <c r="K10">
-        <v>1.067910973988793</v>
+        <v>1.039632320848799</v>
       </c>
       <c r="L10">
-        <v>1.057432098029287</v>
+        <v>1.021424311646574</v>
       </c>
       <c r="M10">
-        <v>1.076188159766152</v>
+        <v>1.037449960404817</v>
       </c>
       <c r="N10">
-        <v>1.066000214726362</v>
+        <v>1.033443770951998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.057359933264917</v>
+        <v>0.9980298738434231</v>
       </c>
       <c r="D11">
-        <v>1.063764023707246</v>
+        <v>1.020808389110745</v>
       </c>
       <c r="E11">
-        <v>1.053213259211293</v>
+        <v>1.002056658883385</v>
       </c>
       <c r="F11">
-        <v>1.071915316682258</v>
+        <v>1.017861616831979</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05382083992949</v>
+        <v>1.047403942986647</v>
       </c>
       <c r="J11">
-        <v>1.063771569246983</v>
+        <v>1.027484842665324</v>
       </c>
       <c r="K11">
-        <v>1.067231163565995</v>
+        <v>1.035348276594202</v>
       </c>
       <c r="L11">
-        <v>1.056717701771925</v>
+        <v>1.016939893575589</v>
       </c>
       <c r="M11">
-        <v>1.075354190718128</v>
+        <v>1.032454371321303</v>
       </c>
       <c r="N11">
-        <v>1.065282246891619</v>
+        <v>1.028943988996068</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057007898577012</v>
+        <v>0.9957968552593117</v>
       </c>
       <c r="D12">
-        <v>1.063466400700901</v>
+        <v>1.018950326751639</v>
       </c>
       <c r="E12">
-        <v>1.052902109963188</v>
+        <v>1.000113152347887</v>
       </c>
       <c r="F12">
-        <v>1.0715607070568</v>
+        <v>1.015728980509664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05368157988931</v>
+        <v>1.046354096246774</v>
       </c>
       <c r="J12">
-        <v>1.06350480786953</v>
+        <v>1.025780171140899</v>
       </c>
       <c r="K12">
-        <v>1.066978228971191</v>
+        <v>1.033723256432685</v>
       </c>
       <c r="L12">
-        <v>1.05645181309031</v>
+        <v>1.015238184858365</v>
       </c>
       <c r="M12">
-        <v>1.075044072552542</v>
+        <v>1.030560917280541</v>
       </c>
       <c r="N12">
-        <v>1.065015106682411</v>
+        <v>1.027236896642549</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057083428546467</v>
+        <v>0.9962779739224753</v>
       </c>
       <c r="D13">
-        <v>1.063530256416616</v>
+        <v>1.019350597273824</v>
       </c>
       <c r="E13">
-        <v>1.052968872146675</v>
+        <v>1.000531873196066</v>
       </c>
       <c r="F13">
-        <v>1.071636783517417</v>
+        <v>1.016188365412374</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053711470996485</v>
+        <v>1.046580386258846</v>
       </c>
       <c r="J13">
-        <v>1.063562049762209</v>
+        <v>1.026147495558494</v>
       </c>
       <c r="K13">
-        <v>1.067032503532463</v>
+        <v>1.034073406837137</v>
       </c>
       <c r="L13">
-        <v>1.056508871221319</v>
+        <v>1.015604890756068</v>
       </c>
       <c r="M13">
-        <v>1.075110609678133</v>
+        <v>1.030968842078154</v>
       </c>
       <c r="N13">
-        <v>1.065072429865143</v>
+        <v>1.02760474270295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05733084176892</v>
+        <v>0.9978462446092136</v>
       </c>
       <c r="D14">
-        <v>1.063739428655276</v>
+        <v>1.020655566592937</v>
       </c>
       <c r="E14">
-        <v>1.053187548347711</v>
+        <v>1.001896828264914</v>
       </c>
       <c r="F14">
-        <v>1.071886009709134</v>
+        <v>1.017686195132617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053809337370928</v>
+        <v>1.047317652427441</v>
       </c>
       <c r="J14">
-        <v>1.063749527976986</v>
+        <v>1.027344680170856</v>
       </c>
       <c r="K14">
-        <v>1.067210264574037</v>
+        <v>1.035214658492708</v>
       </c>
       <c r="L14">
-        <v>1.056695734186971</v>
+        <v>1.016799983648125</v>
       </c>
       <c r="M14">
-        <v>1.075328563332609</v>
+        <v>1.032298651348203</v>
       </c>
       <c r="N14">
-        <v>1.06526017432049</v>
+        <v>1.028803627454781</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057483230615915</v>
+        <v>0.9988063541227949</v>
       </c>
       <c r="D15">
-        <v>1.063868264024502</v>
+        <v>1.021454656246485</v>
       </c>
       <c r="E15">
-        <v>1.05332222467388</v>
+        <v>1.002732523465034</v>
       </c>
       <c r="F15">
-        <v>1.072039532675192</v>
+        <v>1.018603485207256</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053869579463933</v>
+        <v>1.047768739573617</v>
       </c>
       <c r="J15">
-        <v>1.063864979079891</v>
+        <v>1.028077484583204</v>
       </c>
       <c r="K15">
-        <v>1.067319732811413</v>
+        <v>1.03591325656247</v>
       </c>
       <c r="L15">
-        <v>1.056810796163987</v>
+        <v>1.017531449568659</v>
       </c>
       <c r="M15">
-        <v>1.075462805847175</v>
+        <v>1.03311286469113</v>
       </c>
       <c r="N15">
-        <v>1.065375789377202</v>
+        <v>1.029537472533448</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058369433599475</v>
+        <v>1.004303993080683</v>
       </c>
       <c r="D16">
-        <v>1.064617496931386</v>
+        <v>1.026032812326172</v>
       </c>
       <c r="E16">
-        <v>1.054105230134091</v>
+        <v>1.007518523781472</v>
       </c>
       <c r="F16">
-        <v>1.072932596900399</v>
+        <v>1.023860428962776</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054219353108522</v>
+        <v>1.050347495708869</v>
       </c>
       <c r="J16">
-        <v>1.064536037186187</v>
+        <v>1.032271640197967</v>
       </c>
       <c r="K16">
-        <v>1.067956031834381</v>
+        <v>1.039912077570351</v>
       </c>
       <c r="L16">
-        <v>1.057479436218953</v>
+        <v>1.021717060138624</v>
       </c>
       <c r="M16">
-        <v>1.076243459575045</v>
+        <v>1.037776384363772</v>
       </c>
       <c r="N16">
-        <v>1.066047800462982</v>
+        <v>1.03373758433026</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058924657949477</v>
+        <v>1.007676158378269</v>
       </c>
       <c r="D17">
-        <v>1.065086908672684</v>
+        <v>1.028843064479672</v>
       </c>
       <c r="E17">
-        <v>1.054595629831205</v>
+        <v>1.010454746869124</v>
       </c>
       <c r="F17">
-        <v>1.073492353468163</v>
+        <v>1.027088771610746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054438001467029</v>
+        <v>1.051925529737238</v>
       </c>
       <c r="J17">
-        <v>1.064956172023233</v>
+        <v>1.034842515883135</v>
       </c>
       <c r="K17">
-        <v>1.068354418920646</v>
+        <v>1.042363588753689</v>
       </c>
       <c r="L17">
-        <v>1.057897919686489</v>
+        <v>1.024281916463227</v>
       </c>
       <c r="M17">
-        <v>1.076732536221218</v>
+        <v>1.040637941564599</v>
       </c>
       <c r="N17">
-        <v>1.066468531939687</v>
+        <v>1.036312110953784</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059248273267731</v>
+        <v>1.009616860297484</v>
       </c>
       <c r="D18">
-        <v>1.065360508127203</v>
+        <v>1.030461083021244</v>
       </c>
       <c r="E18">
-        <v>1.054881400686869</v>
+        <v>1.012144726002798</v>
       </c>
       <c r="F18">
-        <v>1.073818694324066</v>
+        <v>1.028948031592676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05456526439669</v>
+        <v>1.052832330978541</v>
       </c>
       <c r="J18">
-        <v>1.065200942695349</v>
+        <v>1.036321413448908</v>
       </c>
       <c r="K18">
-        <v>1.068586524387224</v>
+        <v>1.043773947444185</v>
       </c>
       <c r="L18">
-        <v>1.058141678763055</v>
+        <v>1.025757067555635</v>
       </c>
       <c r="M18">
-        <v>1.077017590010443</v>
+        <v>1.042285116636076</v>
       </c>
       <c r="N18">
-        <v>1.066713650214232</v>
+        <v>1.037793108723734</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05935857768613</v>
+        <v>1.010274257454435</v>
       </c>
       <c r="D19">
-        <v>1.065453764669305</v>
+        <v>1.031009288349703</v>
       </c>
       <c r="E19">
-        <v>1.054978795434929</v>
+        <v>1.012717217261161</v>
       </c>
       <c r="F19">
-        <v>1.073929941954166</v>
+        <v>1.029578062424927</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054608611927397</v>
+        <v>1.053139268538704</v>
       </c>
       <c r="J19">
-        <v>1.065284354719243</v>
+        <v>1.036822264208321</v>
       </c>
       <c r="K19">
-        <v>1.068665621259552</v>
+        <v>1.044251607153186</v>
       </c>
       <c r="L19">
-        <v>1.058224737664698</v>
+        <v>1.02625660112646</v>
       </c>
       <c r="M19">
-        <v>1.077114749509674</v>
+        <v>1.042843136663514</v>
       </c>
       <c r="N19">
-        <v>1.066797180692767</v>
+        <v>1.038294670748672</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058865112277129</v>
+        <v>1.007317097532387</v>
       </c>
       <c r="D20">
-        <v>1.065036566019814</v>
+        <v>1.028543760978722</v>
       </c>
       <c r="E20">
-        <v>1.054543042671459</v>
+        <v>1.010142086238196</v>
       </c>
       <c r="F20">
-        <v>1.073432313045847</v>
+        <v>1.026744885571031</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054414570622791</v>
+        <v>1.051757645706722</v>
       </c>
       <c r="J20">
-        <v>1.064911125253819</v>
+        <v>1.03456884236873</v>
       </c>
       <c r="K20">
-        <v>1.068311703417632</v>
+        <v>1.042102608548515</v>
       </c>
       <c r="L20">
-        <v>1.057853055100332</v>
+        <v>1.024008913174583</v>
       </c>
       <c r="M20">
-        <v>1.076680085355936</v>
+        <v>1.040333213882004</v>
       </c>
       <c r="N20">
-        <v>1.066423421198693</v>
+        <v>1.036038048791598</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.057257995299831</v>
+        <v>0.9973857182430093</v>
       </c>
       <c r="D21">
-        <v>1.063677841520925</v>
+        <v>1.020272322275339</v>
       </c>
       <c r="E21">
-        <v>1.05312316560769</v>
+        <v>1.001495993768395</v>
       </c>
       <c r="F21">
-        <v>1.071812625803975</v>
+        <v>1.01724628985984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053780529963371</v>
+        <v>1.047101209576619</v>
       </c>
       <c r="J21">
-        <v>1.063694332913442</v>
+        <v>1.026993149604925</v>
       </c>
       <c r="K21">
-        <v>1.067157930098641</v>
+        <v>1.034879545141823</v>
       </c>
       <c r="L21">
-        <v>1.056640722393434</v>
+        <v>1.016449079409111</v>
       </c>
       <c r="M21">
-        <v>1.075264390994237</v>
+        <v>1.031908130246405</v>
       </c>
       <c r="N21">
-        <v>1.065204900873624</v>
+        <v>1.028451597675125</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056245334742717</v>
+        <v>0.9908761011992122</v>
       </c>
       <c r="D22">
-        <v>1.062821705089925</v>
+        <v>1.014858428777346</v>
       </c>
       <c r="E22">
-        <v>1.052227937109839</v>
+        <v>0.9958312820569275</v>
       </c>
       <c r="F22">
-        <v>1.070792807157159</v>
+        <v>1.011033831853149</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053379414922031</v>
+        <v>1.044036829795268</v>
       </c>
       <c r="J22">
-        <v>1.062926655120293</v>
+        <v>1.022022041225756</v>
       </c>
       <c r="K22">
-        <v>1.066430058024215</v>
+        <v>1.030141174203891</v>
       </c>
       <c r="L22">
-        <v>1.055875410029737</v>
+        <v>1.011485776891027</v>
       </c>
       <c r="M22">
-        <v>1.074372288458215</v>
+        <v>1.02638983021362</v>
       </c>
       <c r="N22">
-        <v>1.064436132889956</v>
+        <v>1.023473429751863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.056782377004579</v>
+        <v>0.9943536597036631</v>
       </c>
       <c r="D23">
-        <v>1.063275737054896</v>
+        <v>1.017749852280956</v>
       </c>
       <c r="E23">
-        <v>1.052702753845492</v>
+        <v>0.9988571996571275</v>
       </c>
       <c r="F23">
-        <v>1.071333573075333</v>
+        <v>1.014351326473041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053592288917899</v>
+        <v>1.045674999811093</v>
       </c>
       <c r="J23">
-        <v>1.063333867465484</v>
+        <v>1.024678187526206</v>
       </c>
       <c r="K23">
-        <v>1.066816151050159</v>
+        <v>1.032672830592514</v>
       </c>
       <c r="L23">
-        <v>1.056281410112025</v>
+        <v>1.014137992401408</v>
       </c>
       <c r="M23">
-        <v>1.074845400849266</v>
+        <v>1.029337387758069</v>
       </c>
       <c r="N23">
-        <v>1.064843923523385</v>
+        <v>1.026133348084725</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058892019137886</v>
+        <v>1.007479422410967</v>
       </c>
       <c r="D24">
-        <v>1.065059314317356</v>
+        <v>1.028679068481076</v>
       </c>
       <c r="E24">
-        <v>1.05456680538291</v>
+        <v>1.01028343392102</v>
       </c>
       <c r="F24">
-        <v>1.073459443209586</v>
+        <v>1.02690034607631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054425158850084</v>
+        <v>1.051833547278024</v>
       </c>
       <c r="J24">
-        <v>1.064931480836492</v>
+        <v>1.034692567236488</v>
       </c>
       <c r="K24">
-        <v>1.068331005539915</v>
+        <v>1.042220594518221</v>
       </c>
       <c r="L24">
-        <v>1.057873328511707</v>
+        <v>1.024132335923337</v>
       </c>
       <c r="M24">
-        <v>1.076703786312953</v>
+        <v>1.040470974705254</v>
       </c>
       <c r="N24">
-        <v>1.066443805688628</v>
+        <v>1.03616194936286</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.06133084965292</v>
+        <v>1.02169260542823</v>
       </c>
       <c r="D25">
-        <v>1.06712121556863</v>
+        <v>1.040540027728661</v>
       </c>
       <c r="E25">
-        <v>1.056719330186911</v>
+        <v>1.022662243070354</v>
       </c>
       <c r="F25">
-        <v>1.075920317520987</v>
+        <v>1.040539254973759</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055381042649139</v>
+        <v>1.058450038088772</v>
       </c>
       <c r="J25">
-        <v>1.066774192858449</v>
+        <v>1.045511349089807</v>
       </c>
       <c r="K25">
-        <v>1.070078458699955</v>
+        <v>1.052539997720796</v>
       </c>
       <c r="L25">
-        <v>1.059707535365554</v>
+        <v>1.034918655687283</v>
       </c>
       <c r="M25">
-        <v>1.078851877693637</v>
+        <v>1.05253923580986</v>
       </c>
       <c r="N25">
-        <v>1.068289134573018</v>
+        <v>1.046996095127342</v>
       </c>
     </row>
   </sheetData>
